--- a/storage/csv/PROFILING.xlsx
+++ b/storage/csv/PROFILING.xlsx
@@ -47,10 +47,10 @@
     <t>mpc_code</t>
   </si>
   <si>
+    <t>lastname</t>
+  </si>
+  <si>
     <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
   </si>
   <si>
     <t>par_value</t>
@@ -7740,26 +7740,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Bookman Old Style"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -7767,41 +7763,35 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Bookman Old Style"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Bookman Old Style"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
     <font>
@@ -7809,7 +7799,6 @@
       <sz val="7.5"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -7817,14 +7806,12 @@
       <sz val="7.5"/>
       <color indexed="36"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7833,7 +7820,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Cambria"/>
-      <family val="1"/>
       <charset val="0"/>
       <scheme val="major"/>
     </font>
@@ -7842,7 +7828,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7851,7 +7836,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7860,7 +7844,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7869,7 +7852,6 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7877,7 +7859,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7886,7 +7867,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7895,7 +7875,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7904,7 +7883,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7912,7 +7890,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7921,7 +7898,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7929,7 +7905,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7937,7 +7912,6 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7945,7 +7919,6 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7953,7 +7926,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7961,7 +7933,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -8918,10 +8889,10 @@
   <sheetPr/>
   <dimension ref="A1:X2293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J200" sqref="J200"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
